--- a/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1699,7 +1699,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1228,7 +1228,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2137,17 +2137,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.10546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="147.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="167.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2156,28 +2156,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-observation-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference shall be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference SHALL be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -521,7 +521,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the changed medication statement (it shall have the same identifier as the entry it replaces)</t>
+    <t>Reference to the changed medication statement (it SHALL have the same identifier as the entry it replaces)</t>
   </si>
   <si>
     <t>Observation.extension:medicationRequestChanged</t>
@@ -534,7 +534,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the changed medication request (it shall have the same identifier as the entry it replaces)</t>
+    <t>Reference to the changed medication request (it SHALL have the same identifier as the entry it replaces)</t>
   </si>
   <si>
     <t>Observation.extension:parentDocument</t>
@@ -592,473 +592,316 @@
     <t>Observation.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>Observation Identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Observation code</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Observation Identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Observation code</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.subject.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Observation.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1097,7 +940,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1120,7 +963,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1325,7 +1168,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1357,7 +1200,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1416,7 +1259,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1449,7 +1292,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1461,7 +1304,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1489,7 +1332,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1569,7 +1412,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1619,7 +1462,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1652,7 +1495,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1689,7 +1532,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1711,7 +1554,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1772,7 +1615,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2128,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP79"/>
+  <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2156,12 +1999,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.96875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -4353,14 +4196,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>84</v>
@@ -4369,19 +4212,21 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>84</v>
       </c>
@@ -4429,31 +4274,31 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>84</v>
@@ -4464,14 +4309,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4487,19 +4332,19 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4537,19 +4382,19 @@
         <v>84</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4561,19 +4406,19 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>84</v>
@@ -4584,10 +4429,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4595,7 +4440,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>94</v>
@@ -4613,23 +4458,23 @@
         <v>114</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>84</v>
@@ -4647,34 +4492,34 @@
         <v>84</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Z21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>94</v>
@@ -4686,19 +4531,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>84</v>
@@ -4706,10 +4551,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4720,7 +4565,7 @@
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>84</v>
@@ -4729,22 +4574,22 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>84</v>
@@ -4769,13 +4614,13 @@
         <v>84</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>84</v>
@@ -4793,13 +4638,13 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>84</v>
@@ -4814,13 +4659,13 @@
         <v>84</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>84</v>
@@ -4828,14 +4673,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4854,32 +4699,32 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>84</v>
@@ -4891,13 +4736,11 @@
         <v>84</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>84</v>
@@ -4915,10 +4758,10 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>94</v>
@@ -4930,30 +4773,30 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4961,7 +4804,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
@@ -4976,18 +4819,20 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>84</v>
       </c>
@@ -4999,7 +4844,7 @@
         <v>84</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>84</v>
@@ -5035,7 +4880,7 @@
         <v>84</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -5050,19 +4895,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>84</v>
@@ -5070,10 +4915,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5093,16 +4938,16 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5153,7 +4998,7 @@
         <v>84</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5165,7 +5010,7 @@
         <v>84</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>84</v>
@@ -5174,10 +5019,10 @@
         <v>84</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>84</v>
@@ -5188,21 +5033,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>84</v>
@@ -5211,19 +5056,19 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5261,31 +5106,31 @@
         <v>84</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>84</v>
@@ -5294,10 +5139,10 @@
         <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>84</v>
@@ -5308,21 +5153,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>84</v>
@@ -5334,18 +5179,18 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>84</v>
       </c>
@@ -5393,31 +5238,31 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>84</v>
@@ -5428,21 +5273,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>84</v>
@@ -5454,16 +5299,16 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5489,13 +5334,13 @@
         <v>84</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>84</v>
@@ -5513,13 +5358,13 @@
         <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>84</v>
@@ -5528,16 +5373,16 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -5548,10 +5393,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5559,7 +5404,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>94</v>
@@ -5568,32 +5413,30 @@
         <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>84</v>
@@ -5611,13 +5454,13 @@
         <v>84</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>84</v>
@@ -5635,10 +5478,10 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>94</v>
@@ -5650,19 +5493,19 @@
         <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>84</v>
@@ -5670,10 +5513,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5684,7 +5527,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>84</v>
@@ -5693,23 +5536,21 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O30" t="s" s="2">
         <v>292</v>
       </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>84</v>
       </c>
@@ -5733,37 +5574,37 @@
         <v>84</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>84</v>
@@ -5781,10 +5622,10 @@
         <v>84</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>84</v>
@@ -5792,21 +5633,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>84</v>
@@ -5818,20 +5659,18 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>84</v>
       </c>
@@ -5855,11 +5694,13 @@
         <v>84</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>84</v>
@@ -5877,13 +5718,13 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>84</v>
@@ -5892,34 +5733,34 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>84</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5938,19 +5779,19 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>84</v>
@@ -5999,7 +5840,7 @@
         <v>84</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6014,19 +5855,19 @@
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>84</v>
@@ -6034,14 +5875,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6057,19 +5898,23 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>84</v>
       </c>
@@ -6105,19 +5950,17 @@
         <v>84</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6129,22 +5972,22 @@
         <v>84</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>84</v>
@@ -6152,21 +5995,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>84</v>
@@ -6175,21 +6020,23 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>84</v>
       </c>
@@ -6225,46 +6072,46 @@
         <v>84</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>84</v>
@@ -6272,10 +6119,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6298,16 +6145,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6357,7 +6204,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6366,7 +6213,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6378,13 +6225,13 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>84</v>
@@ -6392,10 +6239,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6403,7 +6250,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>94</v>
@@ -6418,18 +6265,18 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
       </c>
@@ -6453,13 +6300,13 @@
         <v>84</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>84</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>84</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>84</v>
@@ -6477,13 +6324,13 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>84</v>
@@ -6492,19 +6339,19 @@
         <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>84</v>
@@ -6512,10 +6359,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6535,20 +6382,18 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -6597,7 +6442,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6609,7 +6454,7 @@
         <v>84</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>84</v>
@@ -6621,7 +6466,7 @@
         <v>84</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -6632,21 +6477,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>84</v>
@@ -6655,19 +6500,19 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>344</v>
+        <v>180</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6705,31 +6550,31 @@
         <v>84</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>84</v>
@@ -6741,7 +6586,7 @@
         <v>84</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -6763,10 +6608,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>84</v>
@@ -6778,16 +6623,16 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6837,16 +6682,16 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>106</v>
@@ -6858,13 +6703,13 @@
         <v>84</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>319</v>
+        <v>84</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>84</v>
@@ -6872,14 +6717,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6898,20 +6743,18 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>84</v>
       </c>
@@ -6935,13 +6778,13 @@
         <v>84</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>84</v>
@@ -6959,7 +6802,7 @@
         <v>84</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6974,19 +6817,19 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>359</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>84</v>
@@ -6994,14 +6837,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7020,20 +6863,18 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>84</v>
       </c>
@@ -7069,17 +6910,19 @@
         <v>84</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7094,19 +6937,19 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>84</v>
@@ -7114,16 +6957,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7142,20 +6983,18 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>84</v>
       </c>
@@ -7203,7 +7042,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7218,19 +7057,19 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>84</v>
@@ -7238,10 +7077,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7249,7 +7088,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>94</v>
@@ -7264,18 +7103,20 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
       </c>
@@ -7323,7 +7164,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7332,7 +7173,7 @@
         <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>106</v>
@@ -7341,27 +7182,27 @@
         <v>84</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>84</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7369,7 +7210,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>94</v>
@@ -7381,20 +7222,22 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -7419,13 +7262,13 @@
         <v>84</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>84</v>
@@ -7443,34 +7286,34 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>84</v>
+        <v>368</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>137</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>84</v>
@@ -7478,21 +7321,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>84</v>
@@ -7504,16 +7347,20 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>194</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
       </c>
@@ -7537,13 +7384,13 @@
         <v>84</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>84</v>
@@ -7561,56 +7408,56 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>196</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>84</v>
+        <v>378</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>84</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>84</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>84</v>
@@ -7622,18 +7469,20 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
       </c>
@@ -7669,19 +7518,19 @@
         <v>84</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7693,7 +7542,7 @@
         <v>84</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>84</v>
@@ -7702,10 +7551,10 @@
         <v>84</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>84</v>
@@ -7716,10 +7565,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7727,7 +7576,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>94</v>
@@ -7739,19 +7588,19 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7777,13 +7626,13 @@
         <v>84</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>84</v>
@@ -7801,7 +7650,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7810,7 +7659,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7819,27 +7668,27 @@
         <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>84</v>
+        <v>398</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>137</v>
+        <v>399</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>84</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7859,21 +7708,23 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
       </c>
@@ -7897,13 +7748,13 @@
         <v>84</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>219</v>
+        <v>394</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>84</v>
@@ -7921,7 +7772,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -7942,10 +7793,10 @@
         <v>84</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>84</v>
+        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>84</v>
@@ -7956,10 +7807,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7979,19 +7830,19 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8041,7 +7892,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8059,27 +7910,27 @@
         <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>84</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>84</v>
+        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>84</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8099,19 +7950,19 @@
         <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8161,7 +8012,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8179,27 +8030,27 @@
         <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>84</v>
+        <v>425</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>137</v>
+        <v>426</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>84</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8210,7 +8061,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>84</v>
@@ -8219,22 +8070,22 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
@@ -8283,45 +8134,45 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>408</v>
+        <v>84</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>412</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8344,20 +8195,16 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>259</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>84</v>
       </c>
@@ -8381,13 +8228,13 @@
         <v>84</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>418</v>
+        <v>84</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>84</v>
@@ -8405,7 +8252,7 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>413</v>
+        <v>261</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8414,10 +8261,10 @@
         <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>84</v>
@@ -8426,10 +8273,10 @@
         <v>84</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>421</v>
+        <v>262</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -8440,14 +8287,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>423</v>
+        <v>177</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8466,20 +8313,18 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>265</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>84</v>
       </c>
@@ -8503,13 +8348,13 @@
         <v>84</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>429</v>
+        <v>84</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>84</v>
@@ -8527,7 +8372,7 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8539,68 +8384,68 @@
         <v>84</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>431</v>
+        <v>84</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>433</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>84</v>
+        <v>440</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>439</v>
+        <v>181</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>84</v>
@@ -8649,7 +8494,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8661,7 +8506,7 @@
         <v>84</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>84</v>
@@ -8670,10 +8515,10 @@
         <v>84</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>137</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -8684,10 +8529,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8710,17 +8555,15 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>214</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>84</v>
@@ -8745,13 +8588,13 @@
         <v>84</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>446</v>
+        <v>84</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>84</v>
@@ -8769,7 +8612,7 @@
         <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -8778,7 +8621,7 @@
         <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>106</v>
@@ -8787,27 +8630,27 @@
         <v>84</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AO55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>452</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8830,20 +8673,16 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>84</v>
       </c>
@@ -8867,13 +8706,13 @@
         <v>84</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>446</v>
+        <v>84</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>458</v>
+        <v>84</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>84</v>
@@ -8891,7 +8730,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -8900,7 +8739,7 @@
         <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>106</v>
@@ -8912,10 +8751,10 @@
         <v>84</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>84</v>
@@ -8926,10 +8765,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8952,18 +8791,20 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
       </c>
@@ -8987,13 +8828,13 @@
         <v>84</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>84</v>
+        <v>460</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>84</v>
@@ -9011,7 +8852,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9029,27 +8870,27 @@
         <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>470</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9060,7 +8901,7 @@
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>84</v>
@@ -9072,18 +8913,20 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>472</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>84</v>
       </c>
@@ -9107,13 +8950,13 @@
         <v>84</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>84</v>
+        <v>469</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>84</v>
@@ -9131,13 +8974,13 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>84</v>
@@ -9149,27 +8992,27 @@
         <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>478</v>
+        <v>380</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>479</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9180,7 +9023,7 @@
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>84</v>
@@ -9192,19 +9035,17 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -9253,19 +9094,19 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
@@ -9274,10 +9115,10 @@
         <v>84</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
@@ -9288,10 +9129,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9314,13 +9155,13 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>195</v>
+        <v>479</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9371,7 +9212,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>196</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9383,7 +9224,7 @@
         <v>84</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>84</v>
@@ -9392,10 +9233,10 @@
         <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>84</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>197</v>
+        <v>480</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
@@ -9406,14 +9247,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9429,19 +9270,19 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>200</v>
+        <v>484</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>180</v>
+        <v>485</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9491,7 +9332,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>202</v>
+        <v>481</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9503,7 +9344,7 @@
         <v>84</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>84</v>
@@ -9512,10 +9353,10 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>197</v>
+        <v>487</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>84</v>
@@ -9526,14 +9367,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>492</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9546,26 +9387,24 @@
         <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>139</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>84</v>
       </c>
@@ -9613,7 +9452,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9625,7 +9464,7 @@
         <v>84</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>84</v>
@@ -9634,10 +9473,10 @@
         <v>84</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>137</v>
+        <v>493</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>84</v>
@@ -9648,10 +9487,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9662,7 +9501,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>84</v>
@@ -9671,19 +9510,23 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>84</v>
       </c>
@@ -9731,16 +9574,16 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>500</v>
+        <v>84</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>106</v>
@@ -9752,10 +9595,10 @@
         <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>84</v>
@@ -9766,10 +9609,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9792,13 +9635,13 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>258</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
+        <v>260</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9849,7 +9692,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>503</v>
+        <v>261</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -9858,10 +9701,10 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>500</v>
+        <v>84</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>84</v>
@@ -9870,10 +9713,10 @@
         <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>501</v>
+        <v>84</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>506</v>
+        <v>262</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>84</v>
@@ -9884,21 +9727,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>84</v>
@@ -9910,20 +9753,18 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>508</v>
+        <v>264</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>509</v>
+        <v>265</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>84</v>
       </c>
@@ -9947,13 +9788,13 @@
         <v>84</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>512</v>
+        <v>84</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -9971,31 +9812,31 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>514</v>
+        <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>515</v>
+        <v>84</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
@@ -10006,14 +9847,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>84</v>
+        <v>440</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10026,25 +9867,25 @@
         <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>519</v>
+        <v>180</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>520</v>
+        <v>181</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>84</v>
@@ -10069,13 +9910,13 @@
         <v>84</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>446</v>
+        <v>84</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>521</v>
+        <v>84</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>522</v>
+        <v>84</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
@@ -10093,7 +9934,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10105,19 +9946,19 @@
         <v>84</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>514</v>
+        <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>515</v>
+        <v>84</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>84</v>
@@ -10128,10 +9969,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,7 +9980,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>94</v>
@@ -10151,20 +9992,22 @@
         <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>527</v>
+        <v>239</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -10189,13 +10032,13 @@
         <v>84</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>84</v>
+        <v>508</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>84</v>
@@ -10213,10 +10056,10 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>94</v>
@@ -10231,16 +10074,16 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>84</v>
+        <v>510</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>528</v>
+        <v>244</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>84</v>
@@ -10248,10 +10091,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10271,19 +10114,23 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>84</v>
       </c>
@@ -10331,7 +10178,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10349,27 +10196,27 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>84</v>
+        <v>514</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>501</v>
+        <v>358</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>532</v>
+        <v>359</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>84</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10380,7 +10227,7 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>84</v>
@@ -10389,21 +10236,23 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>534</v>
+        <v>225</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
       </c>
@@ -10427,13 +10276,13 @@
         <v>84</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>84</v>
@@ -10451,16 +10300,16 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>84</v>
+        <v>368</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>106</v>
@@ -10472,10 +10321,10 @@
         <v>84</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>538</v>
+        <v>137</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
@@ -10486,14 +10335,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10509,21 +10358,23 @@
         <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>541</v>
+        <v>225</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>542</v>
+        <v>372</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>543</v>
+        <v>373</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
       </c>
@@ -10547,13 +10398,13 @@
         <v>84</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>84</v>
@@ -10571,7 +10422,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -10589,27 +10440,27 @@
         <v>84</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>84</v>
+        <v>378</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>545</v>
+        <v>380</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>84</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10629,22 +10480,22 @@
         <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>481</v>
+        <v>85</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>549</v>
+        <v>432</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>550</v>
+        <v>433</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
@@ -10693,7 +10544,7 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -10714,985 +10565,15 @@
         <v>84</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>551</v>
+        <v>435</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>552</v>
+        <v>436</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP79" t="s" s="2">
         <v>84</v>
       </c>
     </row>
